--- a/public/blast.xlsx
+++ b/public/blast.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\github\whatsapp-bulk-messages-nodejs\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\github\whatsAppBulk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6AD9C-0F5C-437F-A8B7-824D416FAA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58D0DF-5EE0-4395-949A-471C8FAAA48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1041676-017A-47C3-8227-B9823F73D4A6}"/>
   </bookViews>
@@ -34,31 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Mama</t>
+    <t>NAME</t>
   </si>
   <si>
-    <t>Bapak</t>
+    <t>PHONE</t>
   </si>
   <si>
-    <t>phone</t>
+    <t>John Doe</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>6282197170687</t>
-  </si>
-  <si>
-    <t>6281247026219</t>
+    <t>Igor Martins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +68,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,14 +92,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,40 +436,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB934D82-905B-4EB4-92B7-D4E5CF79F27D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>66666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="3">
+        <v>11111111</v>
       </c>
     </row>
   </sheetData>
